--- a/benchmark data.xlsx
+++ b/benchmark data.xlsx
@@ -422,52 +422,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.7536000000000002E-2</c:v>
+                  <c:v>5.2537E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2044000000000002E-2</c:v>
+                  <c:v>6.5046000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8075000000000006E-2</c:v>
+                  <c:v>7.7054999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0694999999999998E-2</c:v>
+                  <c:v>9.0063000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6609E-2</c:v>
+                  <c:v>9.8059999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10609200000000001</c:v>
+                  <c:v>0.108071</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.120103</c:v>
+                  <c:v>0.122087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.130135</c:v>
+                  <c:v>0.12959100000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13919400000000001</c:v>
+                  <c:v>0.14360200000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15524099999999999</c:v>
+                  <c:v>0.16011300000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.186111</c:v>
+                  <c:v>0.16611999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17213700000000001</c:v>
+                  <c:v>0.175626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.192136</c:v>
+                  <c:v>0.191638</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21013999999999999</c:v>
+                  <c:v>0.206647</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.235677</c:v>
+                  <c:v>0.23766899999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28418300000000002</c:v>
+                  <c:v>0.28219699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,52 +581,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.9032999999999996E-2</c:v>
+                  <c:v>8.7618000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10105600000000001</c:v>
+                  <c:v>9.9585000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11859</c:v>
+                  <c:v>0.110565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12457600000000001</c:v>
+                  <c:v>0.127109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14360100000000001</c:v>
+                  <c:v>0.13659099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14911099999999999</c:v>
+                  <c:v>0.146121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.151091</c:v>
+                  <c:v>0.152144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.165654</c:v>
+                  <c:v>0.160632</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17313100000000001</c:v>
+                  <c:v>0.17161499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17163700000000001</c:v>
+                  <c:v>0.167631</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17665800000000001</c:v>
+                  <c:v>0.16905100000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.19468099999999999</c:v>
+                  <c:v>0.19068299999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20959800000000001</c:v>
+                  <c:v>0.20214299999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21570300000000001</c:v>
+                  <c:v>0.21263199999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.250162</c:v>
+                  <c:v>0.24668599999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29215799999999997</c:v>
+                  <c:v>0.28370000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,52 +740,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.6537999999999998E-2</c:v>
+                  <c:v>5.7041000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9042999999999998E-2</c:v>
+                  <c:v>5.8541999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4052999999999997E-2</c:v>
+                  <c:v>5.8042000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3038000000000002E-2</c:v>
+                  <c:v>5.604E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1535999999999998E-2</c:v>
+                  <c:v>5.7057999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1035999999999998E-2</c:v>
+                  <c:v>5.5038999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4038000000000003E-2</c:v>
+                  <c:v>5.7532E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2051E-2</c:v>
+                  <c:v>5.9556999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9535000000000003E-2</c:v>
+                  <c:v>5.9052E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2035999999999999E-2</c:v>
+                  <c:v>5.8050999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.604E-2</c:v>
+                  <c:v>5.5038999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9542999999999999E-2</c:v>
+                  <c:v>5.7044999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8040000000000003E-2</c:v>
+                  <c:v>6.4529000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8555E-2</c:v>
+                  <c:v>7.9049999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.44437500000000002</c:v>
+                  <c:v>0.46442800000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44590099999999999</c:v>
+                  <c:v>0.47138200000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,19 +905,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>5.0100000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.0000000000000001E-4</c:v>
@@ -929,22 +929,22 @@
                   <c:v>2.0010000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0029999999999996E-3</c:v>
+                  <c:v>4.5180000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5059999999999997E-3</c:v>
+                  <c:v>8.4910000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7521999999999999E-2</c:v>
+                  <c:v>1.8013000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5529999999999999E-2</c:v>
+                  <c:v>3.6035999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.5542000000000003E-2</c:v>
+                  <c:v>6.7047999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13758000000000001</c:v>
+                  <c:v>0.14110500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,6 +1095,7 @@
         <c:axId val="392001064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1462,52 +1463,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.5129999999999997E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5009999999999998E-3</c:v>
+                  <c:v>6.5040000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5059999999999997E-3</c:v>
+                  <c:v>8.0059999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1008E-2</c:v>
+                  <c:v>1.1518E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2009000000000001E-2</c:v>
+                  <c:v>1.2508999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3519E-2</c:v>
+                  <c:v>1.35E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5009E-2</c:v>
+                  <c:v>1.5021E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6017E-2</c:v>
+                  <c:v>1.6500999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7500000000000002E-2</c:v>
+                  <c:v>1.8023000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8508E-2</c:v>
+                  <c:v>1.9505999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0504999999999999E-2</c:v>
+                  <c:v>2.1003999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2026E-2</c:v>
+                  <c:v>2.1514999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2516000000000001E-2</c:v>
+                  <c:v>2.3016999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4524000000000001E-2</c:v>
+                  <c:v>2.4007000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5507999999999999E-2</c:v>
+                  <c:v>2.5517999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,43 +1631,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.0100000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.0299999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>4.9799999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5009999999999999E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2E-3</c:v>
+                  <c:v>2.0010000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.503E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5139999999999998E-3</c:v>
+                  <c:v>7.0140000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3509E-2</c:v>
+                  <c:v>1.4002000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7023999999999999E-2</c:v>
+                  <c:v>2.8004999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4046999999999998E-2</c:v>
+                  <c:v>5.7541000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10907699999999999</c:v>
+                  <c:v>0.110578</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20866199999999999</c:v>
+                  <c:v>0.22467100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1798,34 +1799,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.0100000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0100000000000003E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.0009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.503E-3</c:v>
+                  <c:v>3.0019999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5030000000000001E-3</c:v>
+                  <c:v>5.0140000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0150000000000004E-3</c:v>
+                  <c:v>1.0009000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8518E-2</c:v>
+                  <c:v>2.0503E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.7035999999999999E-2</c:v>
+                  <c:v>4.2040000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,6 +1977,7 @@
         <c:axId val="341696528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2342,52 +2344,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.10657</c:v>
+                  <c:v>0.107076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12809100000000001</c:v>
+                  <c:v>0.12909200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.148086</c:v>
+                  <c:v>0.151089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16914100000000001</c:v>
+                  <c:v>0.171122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18967200000000001</c:v>
+                  <c:v>0.193638</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21063100000000001</c:v>
+                  <c:v>0.21316099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.234677</c:v>
+                  <c:v>0.23565700000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25518400000000002</c:v>
+                  <c:v>0.25718299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.274727</c:v>
+                  <c:v>0.27669700000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29971399999999998</c:v>
+                  <c:v>0.29871300000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31673499999999999</c:v>
+                  <c:v>0.32022699999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33823999999999999</c:v>
+                  <c:v>0.34125299999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35825499999999999</c:v>
+                  <c:v>0.36224699999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.37977</c:v>
+                  <c:v>0.38527400000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40127600000000002</c:v>
+                  <c:v>0.40679900000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.42130000000000001</c:v>
+                  <c:v>0.42530200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2504,49 +2506,49 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0020000000000001E-3</c:v>
+                  <c:v>2.0019999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8999999999999999E-4</c:v>
+                  <c:v>1.5039999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.498E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0009999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5009999999999999E-3</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5009999999999999E-3</c:v>
+                  <c:v>2.0019999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5009999999999999E-3</c:v>
+                  <c:v>2.0019999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2E-3</c:v>
+                  <c:v>3.0019999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0019999999999999E-3</c:v>
+                  <c:v>4.4929999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0039999999999998E-3</c:v>
+                  <c:v>8.0059999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1017000000000001E-2</c:v>
+                  <c:v>1.6011000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0008000000000001E-2</c:v>
+                  <c:v>3.0022E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9528000000000001E-2</c:v>
+                  <c:v>5.9551E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9055E-2</c:v>
+                  <c:v>0.118574</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.65344400000000002</c:v>
+                  <c:v>0.36428100000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2660,52 +2662,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.4920000000000001E-3</c:v>
+                  <c:v>1.0009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0150000000000001E-3</c:v>
+                  <c:v>1.5009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9099999999999991E-4</c:v>
+                  <c:v>1.0009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5100000000000001E-3</c:v>
+                  <c:v>1.0009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0009999999999999E-3</c:v>
+                  <c:v>1.5009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0139999999999999E-3</c:v>
+                  <c:v>1.5009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4959999999999999E-3</c:v>
+                  <c:v>1.5009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.0010000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0010000000000002E-3</c:v>
+                  <c:v>3.003E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0109999999999998E-3</c:v>
+                  <c:v>5.0029999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9959999999999996E-3</c:v>
+                  <c:v>8.0059999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0506E-2</c:v>
+                  <c:v>1.6511999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8516000000000001E-2</c:v>
+                  <c:v>2.8015999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8532999999999998E-2</c:v>
+                  <c:v>6.3045000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.7551999999999996E-2</c:v>
+                  <c:v>0.11858399999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.65044500000000005</c:v>
+                  <c:v>0.36175000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5782,8 +5784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5843,13 +5845,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.7536000000000002E-2</v>
+        <v>5.2537E-2</v>
       </c>
       <c r="D3">
-        <v>9.9032999999999996E-2</v>
+        <v>8.7618000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>5.6537999999999998E-2</v>
+        <v>5.7041000000000001E-2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5859,7 +5861,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>7.5129999999999997E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -5872,13 +5874,13 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <v>0.10657</v>
+        <v>0.107076</v>
       </c>
       <c r="O3">
         <v>1E-3</v>
       </c>
       <c r="P3">
-        <v>1.4920000000000001E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="S3" t="s">
         <v>10</v>
@@ -5890,13 +5892,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>6.2044000000000002E-2</v>
+        <v>6.5046000000000007E-2</v>
       </c>
       <c r="D4">
-        <v>0.10105600000000001</v>
+        <v>9.9585000000000007E-2</v>
       </c>
       <c r="E4">
-        <v>5.9042999999999998E-2</v>
+        <v>5.8541999999999997E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5906,7 +5908,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>6.5009999999999998E-3</v>
+        <v>6.5040000000000002E-3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -5919,13 +5921,13 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>0.12809100000000001</v>
+        <v>0.12909200000000001</v>
       </c>
       <c r="O4">
-        <v>1.0020000000000001E-3</v>
+        <v>2.0019999999999999E-3</v>
       </c>
       <c r="P4">
-        <v>1.0150000000000001E-3</v>
+        <v>1.5009999999999999E-3</v>
       </c>
       <c r="S4" t="s">
         <v>9</v>
@@ -5937,23 +5939,23 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7.8075000000000006E-2</v>
+        <v>7.7054999999999998E-2</v>
       </c>
       <c r="D5">
-        <v>0.11859</v>
+        <v>0.110565</v>
       </c>
       <c r="E5">
-        <v>5.4052999999999997E-2</v>
+        <v>5.8042000000000003E-2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I5">
-        <v>8.5059999999999997E-3</v>
+        <v>8.0059999999999992E-3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5966,13 +5968,13 @@
         <v>8</v>
       </c>
       <c r="N5">
-        <v>0.148086</v>
+        <v>0.151089</v>
       </c>
       <c r="O5">
         <v>1.0009999999999999E-3</v>
       </c>
       <c r="P5">
-        <v>9.9099999999999991E-4</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="S5" t="s">
         <v>11</v>
@@ -5984,13 +5986,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>9.0694999999999998E-2</v>
+        <v>9.0063000000000004E-2</v>
       </c>
       <c r="D6">
-        <v>0.12457600000000001</v>
+        <v>0.127109</v>
       </c>
       <c r="E6">
-        <v>5.3038000000000002E-2</v>
+        <v>5.604E-2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6003,7 +6005,7 @@
         <v>1.0007E-2</v>
       </c>
       <c r="J6">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -6013,16 +6015,16 @@
         <v>16</v>
       </c>
       <c r="N6">
-        <v>0.16914100000000001</v>
+        <v>0.171122</v>
       </c>
       <c r="O6">
-        <v>9.8999999999999999E-4</v>
+        <v>1.5039999999999999E-3</v>
       </c>
       <c r="P6">
-        <v>1.5100000000000001E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="S6">
-        <v>4.7536000000000002E-2</v>
+        <v>5.2537E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -6031,26 +6033,26 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>9.6609E-2</v>
+        <v>9.8059999999999994E-2</v>
       </c>
       <c r="D7">
-        <v>0.14360100000000001</v>
+        <v>0.13659099999999999</v>
       </c>
       <c r="E7">
-        <v>5.1535999999999998E-2</v>
+        <v>5.7057999999999998E-2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I7">
-        <v>1.1008E-2</v>
+        <v>1.1518E-2</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.0100000000000003E-4</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -6060,16 +6062,16 @@
         <v>32</v>
       </c>
       <c r="N7">
-        <v>0.18967200000000001</v>
+        <v>0.193638</v>
       </c>
       <c r="O7">
-        <v>1.0009999999999999E-3</v>
+        <v>1.498E-3</v>
       </c>
       <c r="P7">
-        <v>1.0009999999999999E-3</v>
+        <v>1.5009999999999999E-3</v>
       </c>
       <c r="S7">
-        <v>6.2044000000000002E-2</v>
+        <v>6.5046000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -6078,13 +6080,13 @@
         <v>64</v>
       </c>
       <c r="C8">
-        <v>0.10609200000000001</v>
+        <v>0.108071</v>
       </c>
       <c r="D8">
-        <v>0.14911099999999999</v>
+        <v>0.146121</v>
       </c>
       <c r="E8">
-        <v>5.1035999999999998E-2</v>
+        <v>5.5038999999999998E-2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6094,10 +6096,10 @@
         <v>64</v>
       </c>
       <c r="I8">
-        <v>1.2009000000000001E-2</v>
+        <v>1.2508999999999999E-2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.0299999999999997E-4</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -6107,16 +6109,16 @@
         <v>64</v>
       </c>
       <c r="N8">
-        <v>0.21063100000000001</v>
+        <v>0.21316099999999999</v>
       </c>
       <c r="O8">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="P8">
         <v>1.5009999999999999E-3</v>
       </c>
-      <c r="P8">
-        <v>1.0139999999999999E-3</v>
-      </c>
       <c r="S8">
-        <v>7.8075000000000006E-2</v>
+        <v>7.7054999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -6125,45 +6127,45 @@
         <v>128</v>
       </c>
       <c r="C9">
-        <v>0.120103</v>
+        <v>0.122087</v>
       </c>
       <c r="D9">
-        <v>0.151091</v>
+        <v>0.152144</v>
       </c>
       <c r="E9">
-        <v>5.4038000000000003E-2</v>
+        <v>5.7532E-2</v>
       </c>
       <c r="F9">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0100000000000003E-4</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="I9">
-        <v>1.3519E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="J9">
-        <v>5.0000000000000001E-4</v>
+        <v>4.9799999999999996E-4</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5.0100000000000003E-4</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="N9">
-        <v>0.234677</v>
+        <v>0.23565700000000001</v>
       </c>
       <c r="O9">
+        <v>2.0019999999999999E-3</v>
+      </c>
+      <c r="P9">
         <v>1.5009999999999999E-3</v>
       </c>
-      <c r="P9">
-        <v>1.4959999999999999E-3</v>
-      </c>
       <c r="S9">
-        <v>9.0694999999999998E-2</v>
+        <v>9.0063000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -6172,13 +6174,13 @@
         <v>256</v>
       </c>
       <c r="C10">
-        <v>0.130135</v>
+        <v>0.12959100000000001</v>
       </c>
       <c r="D10">
-        <v>0.165654</v>
+        <v>0.160632</v>
       </c>
       <c r="E10">
-        <v>5.2051E-2</v>
+        <v>5.9556999999999999E-2</v>
       </c>
       <c r="F10">
         <v>5.0000000000000001E-4</v>
@@ -6188,10 +6190,10 @@
         <v>256</v>
       </c>
       <c r="I10">
-        <v>1.5009E-2</v>
+        <v>1.5021E-2</v>
       </c>
       <c r="J10">
-        <v>1.5009999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -6201,16 +6203,16 @@
         <v>256</v>
       </c>
       <c r="N10">
-        <v>0.25518400000000002</v>
+        <v>0.25718299999999999</v>
       </c>
       <c r="O10">
-        <v>1.5009999999999999E-3</v>
+        <v>2.0019999999999999E-3</v>
       </c>
       <c r="P10">
         <v>2.0010000000000002E-3</v>
       </c>
       <c r="S10">
-        <v>9.6609E-2</v>
+        <v>9.8059999999999994E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -6219,13 +6221,13 @@
         <v>512</v>
       </c>
       <c r="C11">
-        <v>0.13919400000000001</v>
+        <v>0.14360200000000001</v>
       </c>
       <c r="D11">
-        <v>0.17313100000000001</v>
+        <v>0.17161499999999999</v>
       </c>
       <c r="E11">
-        <v>4.9535000000000003E-2</v>
+        <v>5.9052E-2</v>
       </c>
       <c r="F11">
         <v>1.0009999999999999E-3</v>
@@ -6235,29 +6237,29 @@
         <v>512</v>
       </c>
       <c r="I11">
-        <v>1.6017E-2</v>
+        <v>1.6500999999999998E-2</v>
       </c>
       <c r="J11">
-        <v>2E-3</v>
+        <v>2.0010000000000002E-3</v>
       </c>
       <c r="K11">
-        <v>5.0100000000000003E-4</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="N11">
-        <v>0.274727</v>
+        <v>0.27669700000000003</v>
       </c>
       <c r="O11">
-        <v>2E-3</v>
+        <v>3.0019999999999999E-3</v>
       </c>
       <c r="P11">
-        <v>2.0010000000000002E-3</v>
+        <v>3.003E-3</v>
       </c>
       <c r="S11">
-        <v>0.10609200000000001</v>
+        <v>0.108071</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -6266,13 +6268,13 @@
         <v>1024</v>
       </c>
       <c r="C12">
-        <v>0.15524099999999999</v>
+        <v>0.16011300000000001</v>
       </c>
       <c r="D12">
-        <v>0.17163700000000001</v>
+        <v>0.167631</v>
       </c>
       <c r="E12">
-        <v>5.2035999999999999E-2</v>
+        <v>5.8050999999999998E-2</v>
       </c>
       <c r="F12">
         <v>2.0010000000000002E-3</v>
@@ -6282,29 +6284,29 @@
         <v>1024</v>
       </c>
       <c r="I12">
-        <v>1.7500000000000002E-2</v>
+        <v>1.8023000000000001E-2</v>
       </c>
       <c r="J12">
         <v>3.503E-3</v>
       </c>
       <c r="K12">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
         <v>1024</v>
       </c>
       <c r="N12">
-        <v>0.29971399999999998</v>
+        <v>0.29871300000000001</v>
       </c>
       <c r="O12">
-        <v>3.0019999999999999E-3</v>
+        <v>4.4929999999999996E-3</v>
       </c>
       <c r="P12">
-        <v>3.0109999999999998E-3</v>
+        <v>5.0029999999999996E-3</v>
       </c>
       <c r="S12">
-        <v>0.120103</v>
+        <v>0.122087</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -6313,45 +6315,45 @@
         <v>2048</v>
       </c>
       <c r="C13">
-        <v>0.186111</v>
+        <v>0.16611999999999999</v>
       </c>
       <c r="D13">
-        <v>0.17665800000000001</v>
+        <v>0.16905100000000001</v>
       </c>
       <c r="E13">
-        <v>5.604E-2</v>
+        <v>5.5038999999999998E-2</v>
       </c>
       <c r="F13">
-        <v>4.0029999999999996E-3</v>
+        <v>4.5180000000000003E-3</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="I13">
-        <v>1.8508E-2</v>
+        <v>1.9505999999999999E-2</v>
       </c>
       <c r="J13">
-        <v>6.5139999999999998E-3</v>
+        <v>7.0140000000000003E-3</v>
       </c>
       <c r="K13">
-        <v>1E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
         <v>2048</v>
       </c>
       <c r="N13">
-        <v>0.31673499999999999</v>
+        <v>0.32022699999999998</v>
       </c>
       <c r="O13">
-        <v>6.0039999999999998E-3</v>
+        <v>8.0059999999999992E-3</v>
       </c>
       <c r="P13">
-        <v>5.9959999999999996E-3</v>
+        <v>8.0059999999999992E-3</v>
       </c>
       <c r="S13">
-        <v>0.130135</v>
+        <v>0.12959100000000001</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -6360,45 +6362,45 @@
         <v>4096</v>
       </c>
       <c r="C14">
-        <v>0.17213700000000001</v>
+        <v>0.175626</v>
       </c>
       <c r="D14">
-        <v>0.19468099999999999</v>
+        <v>0.19068299999999999</v>
       </c>
       <c r="E14">
-        <v>5.9542999999999999E-2</v>
+        <v>5.7044999999999998E-2</v>
       </c>
       <c r="F14">
-        <v>8.5059999999999997E-3</v>
+        <v>8.4910000000000003E-3</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="I14">
-        <v>2.0504999999999999E-2</v>
+        <v>2.1003999999999998E-2</v>
       </c>
       <c r="J14">
-        <v>1.3509E-2</v>
+        <v>1.4002000000000001E-2</v>
       </c>
       <c r="K14">
-        <v>2.503E-3</v>
+        <v>3.0019999999999999E-3</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
         <v>4096</v>
       </c>
       <c r="N14">
-        <v>0.33823999999999999</v>
+        <v>0.34125299999999997</v>
       </c>
       <c r="O14">
-        <v>1.1017000000000001E-2</v>
+        <v>1.6011000000000001E-2</v>
       </c>
       <c r="P14">
-        <v>1.0506E-2</v>
+        <v>1.6511999999999999E-2</v>
       </c>
       <c r="S14">
-        <v>0.13919400000000001</v>
+        <v>0.14360200000000001</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -6407,45 +6409,45 @@
         <v>8192</v>
       </c>
       <c r="C15">
-        <v>0.192136</v>
+        <v>0.191638</v>
       </c>
       <c r="D15">
-        <v>0.20959800000000001</v>
+        <v>0.20214299999999999</v>
       </c>
       <c r="E15">
-        <v>6.8040000000000003E-2</v>
+        <v>6.4529000000000003E-2</v>
       </c>
       <c r="F15">
-        <v>1.7521999999999999E-2</v>
+        <v>1.8013000000000001E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
         <v>8192</v>
       </c>
       <c r="I15">
-        <v>2.2026E-2</v>
+        <v>2.1514999999999999E-2</v>
       </c>
       <c r="J15">
-        <v>2.7023999999999999E-2</v>
+        <v>2.8004999999999999E-2</v>
       </c>
       <c r="K15">
-        <v>4.5030000000000001E-3</v>
+        <v>5.0140000000000002E-3</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
         <v>8192</v>
       </c>
       <c r="N15">
-        <v>0.35825499999999999</v>
+        <v>0.36224699999999999</v>
       </c>
       <c r="O15">
-        <v>2.0008000000000001E-2</v>
+        <v>3.0022E-2</v>
       </c>
       <c r="P15">
-        <v>1.8516000000000001E-2</v>
+        <v>2.8015999999999999E-2</v>
       </c>
       <c r="S15">
-        <v>0.15524099999999999</v>
+        <v>0.16011300000000001</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -6454,45 +6456,45 @@
         <v>16384</v>
       </c>
       <c r="C16">
-        <v>0.21013999999999999</v>
+        <v>0.206647</v>
       </c>
       <c r="D16">
-        <v>0.21570300000000001</v>
+        <v>0.21263199999999999</v>
       </c>
       <c r="E16">
-        <v>7.8555E-2</v>
+        <v>7.9049999999999995E-2</v>
       </c>
       <c r="F16">
-        <v>3.5529999999999999E-2</v>
+        <v>3.6035999999999999E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
         <v>16384</v>
       </c>
       <c r="I16">
-        <v>2.2516000000000001E-2</v>
+        <v>2.3016999999999999E-2</v>
       </c>
       <c r="J16">
-        <v>5.4046999999999998E-2</v>
+        <v>5.7541000000000002E-2</v>
       </c>
       <c r="K16">
-        <v>9.0150000000000004E-3</v>
+        <v>1.0009000000000001E-2</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
         <v>16384</v>
       </c>
       <c r="N16">
-        <v>0.37977</v>
+        <v>0.38527400000000001</v>
       </c>
       <c r="O16">
-        <v>3.9528000000000001E-2</v>
+        <v>5.9551E-2</v>
       </c>
       <c r="P16">
-        <v>3.8532999999999998E-2</v>
+        <v>6.3045000000000004E-2</v>
       </c>
       <c r="S16">
-        <v>0.186111</v>
+        <v>0.16611999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -6501,45 +6503,45 @@
         <v>32768</v>
       </c>
       <c r="C17">
-        <v>0.235677</v>
+        <v>0.23766899999999999</v>
       </c>
       <c r="D17">
-        <v>0.250162</v>
+        <v>0.24668599999999999</v>
       </c>
       <c r="E17">
-        <v>0.44437500000000002</v>
+        <v>0.46442800000000001</v>
       </c>
       <c r="F17">
-        <v>6.5542000000000003E-2</v>
+        <v>6.7047999999999996E-2</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
         <v>32768</v>
       </c>
       <c r="I17">
-        <v>2.4524000000000001E-2</v>
+        <v>2.4007000000000001E-2</v>
       </c>
       <c r="J17">
-        <v>0.10907699999999999</v>
+        <v>0.110578</v>
       </c>
       <c r="K17">
-        <v>1.8518E-2</v>
+        <v>2.0503E-2</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
         <v>32768</v>
       </c>
       <c r="N17">
-        <v>0.40127600000000002</v>
+        <v>0.40679900000000002</v>
       </c>
       <c r="O17">
-        <v>7.9055E-2</v>
+        <v>0.118574</v>
       </c>
       <c r="P17">
-        <v>7.7551999999999996E-2</v>
+        <v>0.11858399999999999</v>
       </c>
       <c r="S17">
-        <v>0.17213700000000001</v>
+        <v>0.175626</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -6548,60 +6550,60 @@
         <v>65536</v>
       </c>
       <c r="C18">
-        <v>0.28418300000000002</v>
+        <v>0.28219699999999998</v>
       </c>
       <c r="D18">
-        <v>0.29215799999999997</v>
+        <v>0.28370000000000001</v>
       </c>
       <c r="E18">
-        <v>0.44590099999999999</v>
+        <v>0.47138200000000002</v>
       </c>
       <c r="F18">
-        <v>0.13758000000000001</v>
+        <v>0.14110500000000001</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
         <v>65536</v>
       </c>
       <c r="I18">
-        <v>2.5507999999999999E-2</v>
+        <v>2.5517999999999999E-2</v>
       </c>
       <c r="J18">
-        <v>0.20866199999999999</v>
+        <v>0.22467100000000001</v>
       </c>
       <c r="K18">
-        <v>3.7035999999999999E-2</v>
+        <v>4.2040000000000001E-2</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
         <v>65536</v>
       </c>
       <c r="N18">
-        <v>0.42130000000000001</v>
+        <v>0.42530200000000001</v>
       </c>
       <c r="O18">
-        <v>0.65344400000000002</v>
+        <v>0.36428100000000002</v>
       </c>
       <c r="P18">
-        <v>0.65044500000000005</v>
+        <v>0.36175000000000002</v>
       </c>
       <c r="S18">
-        <v>0.192136</v>
+        <v>0.191638</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S19">
-        <v>0.21013999999999999</v>
+        <v>0.206647</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S20">
-        <v>0.235677</v>
+        <v>0.23766899999999999</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S21">
-        <v>0.28418300000000002</v>
+        <v>0.28219699999999998</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -6611,82 +6613,82 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S23">
-        <v>9.9032999999999996E-2</v>
+        <v>8.7618000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S24">
-        <v>0.10105600000000001</v>
+        <v>9.9585000000000007E-2</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S25">
-        <v>0.11859</v>
+        <v>0.110565</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S26">
-        <v>0.12457600000000001</v>
+        <v>0.127109</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S27">
-        <v>0.14360100000000001</v>
+        <v>0.13659099999999999</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S28">
-        <v>0.14911099999999999</v>
+        <v>0.146121</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S29">
-        <v>0.151091</v>
+        <v>0.152144</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S30">
-        <v>0.165654</v>
+        <v>0.160632</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S31">
-        <v>0.17313100000000001</v>
+        <v>0.17161499999999999</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S32">
-        <v>0.17163700000000001</v>
+        <v>0.167631</v>
       </c>
     </row>
     <row r="33" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S33">
-        <v>0.17665800000000001</v>
+        <v>0.16905100000000001</v>
       </c>
     </row>
     <row r="34" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S34">
-        <v>0.19468099999999999</v>
+        <v>0.19068299999999999</v>
       </c>
     </row>
     <row r="35" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S35">
-        <v>0.20959800000000001</v>
+        <v>0.20214299999999999</v>
       </c>
     </row>
     <row r="36" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S36">
-        <v>0.21570300000000001</v>
+        <v>0.21263199999999999</v>
       </c>
     </row>
     <row r="37" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S37">
-        <v>0.250162</v>
+        <v>0.24668599999999999</v>
       </c>
     </row>
     <row r="38" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S38">
-        <v>0.29215799999999997</v>
+        <v>0.28370000000000001</v>
       </c>
     </row>
     <row r="39" spans="19:19" x14ac:dyDescent="0.25">
@@ -6696,82 +6698,82 @@
     </row>
     <row r="40" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S40">
-        <v>5.6537999999999998E-2</v>
+        <v>5.7041000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S41">
-        <v>5.9042999999999998E-2</v>
+        <v>5.8541999999999997E-2</v>
       </c>
     </row>
     <row r="42" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S42">
-        <v>5.4052999999999997E-2</v>
+        <v>5.8042000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S43">
-        <v>5.3038000000000002E-2</v>
+        <v>5.604E-2</v>
       </c>
     </row>
     <row r="44" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S44">
-        <v>5.1535999999999998E-2</v>
+        <v>5.7057999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S45">
-        <v>5.1035999999999998E-2</v>
+        <v>5.5038999999999998E-2</v>
       </c>
     </row>
     <row r="46" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S46">
-        <v>5.4038000000000003E-2</v>
+        <v>5.7532E-2</v>
       </c>
     </row>
     <row r="47" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S47">
-        <v>5.2051E-2</v>
+        <v>5.9556999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S48">
-        <v>4.9535000000000003E-2</v>
+        <v>5.9052E-2</v>
       </c>
     </row>
     <row r="49" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S49">
-        <v>5.2035999999999999E-2</v>
+        <v>5.8050999999999998E-2</v>
       </c>
     </row>
     <row r="50" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S50">
-        <v>5.604E-2</v>
+        <v>5.5038999999999998E-2</v>
       </c>
     </row>
     <row r="51" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S51">
-        <v>5.9542999999999999E-2</v>
+        <v>5.7044999999999998E-2</v>
       </c>
     </row>
     <row r="52" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S52">
-        <v>6.8040000000000003E-2</v>
+        <v>6.4529000000000003E-2</v>
       </c>
     </row>
     <row r="53" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S53">
-        <v>7.8555E-2</v>
+        <v>7.9049999999999995E-2</v>
       </c>
     </row>
     <row r="54" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S54">
-        <v>0.44437500000000002</v>
+        <v>0.46442800000000001</v>
       </c>
     </row>
     <row r="55" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S55">
-        <v>0.44590099999999999</v>
+        <v>0.47138200000000002</v>
       </c>
     </row>
     <row r="56" spans="19:19" x14ac:dyDescent="0.25">
@@ -6791,7 +6793,7 @@
     </row>
     <row r="59" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S59">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="60" spans="19:19" x14ac:dyDescent="0.25">
@@ -6801,7 +6803,7 @@
     </row>
     <row r="61" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S61">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="62" spans="19:19" x14ac:dyDescent="0.25">
@@ -6811,7 +6813,7 @@
     </row>
     <row r="63" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S63">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0100000000000003E-4</v>
       </c>
     </row>
     <row r="64" spans="19:19" x14ac:dyDescent="0.25">
@@ -6831,32 +6833,32 @@
     </row>
     <row r="67" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S67">
-        <v>4.0029999999999996E-3</v>
+        <v>4.5180000000000003E-3</v>
       </c>
     </row>
     <row r="68" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S68">
-        <v>8.5059999999999997E-3</v>
+        <v>8.4910000000000003E-3</v>
       </c>
     </row>
     <row r="69" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S69">
-        <v>1.7521999999999999E-2</v>
+        <v>1.8013000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S70">
-        <v>3.5529999999999999E-2</v>
+        <v>3.6035999999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S71">
-        <v>6.5542000000000003E-2</v>
+        <v>6.7047999999999996E-2</v>
       </c>
     </row>
     <row r="72" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S72">
-        <v>0.13758000000000001</v>
+        <v>0.14110500000000001</v>
       </c>
     </row>
     <row r="73" spans="19:19" x14ac:dyDescent="0.25">
@@ -6881,32 +6883,32 @@
     </row>
     <row r="77" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S77">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S78">
-        <v>0</v>
+        <v>5.0100000000000003E-4</v>
       </c>
     </row>
     <row r="79" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S79">
-        <v>0</v>
+        <v>5.0299999999999997E-4</v>
       </c>
     </row>
     <row r="80" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S80">
-        <v>5.0000000000000001E-4</v>
+        <v>4.9799999999999996E-4</v>
       </c>
     </row>
     <row r="81" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S81">
-        <v>1.5009999999999999E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="82" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S82">
-        <v>2E-3</v>
+        <v>2.0010000000000002E-3</v>
       </c>
     </row>
     <row r="83" spans="19:19" x14ac:dyDescent="0.25">
@@ -6916,32 +6918,32 @@
     </row>
     <row r="84" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S84">
-        <v>6.5139999999999998E-3</v>
+        <v>7.0140000000000003E-3</v>
       </c>
     </row>
     <row r="85" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S85">
-        <v>1.3509E-2</v>
+        <v>1.4002000000000001E-2</v>
       </c>
     </row>
     <row r="86" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S86">
-        <v>2.7023999999999999E-2</v>
+        <v>2.8004999999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S87">
-        <v>5.4046999999999998E-2</v>
+        <v>5.7541000000000002E-2</v>
       </c>
     </row>
     <row r="88" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S88">
-        <v>0.10907699999999999</v>
+        <v>0.110578</v>
       </c>
     </row>
     <row r="89" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S89">
-        <v>0.20866199999999999</v>
+        <v>0.22467100000000001</v>
       </c>
     </row>
     <row r="90" spans="19:19" x14ac:dyDescent="0.25">
@@ -6981,7 +6983,7 @@
     </row>
     <row r="97" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S97">
-        <v>0</v>
+        <v>5.0100000000000003E-4</v>
       </c>
     </row>
     <row r="98" spans="19:19" x14ac:dyDescent="0.25">
@@ -6991,42 +6993,42 @@
     </row>
     <row r="99" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S99">
-        <v>5.0100000000000003E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S100">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="101" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S101">
-        <v>1E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
     </row>
     <row r="102" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S102">
-        <v>2.503E-3</v>
+        <v>3.0019999999999999E-3</v>
       </c>
     </row>
     <row r="103" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S103">
-        <v>4.5030000000000001E-3</v>
+        <v>5.0140000000000002E-3</v>
       </c>
     </row>
     <row r="104" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S104">
-        <v>9.0150000000000004E-3</v>
+        <v>1.0009000000000001E-2</v>
       </c>
     </row>
     <row r="105" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S105">
-        <v>1.8518E-2</v>
+        <v>2.0503E-2</v>
       </c>
     </row>
     <row r="106" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S106">
-        <v>3.7035999999999999E-2</v>
+        <v>4.2040000000000001E-2</v>
       </c>
     </row>
     <row r="107" spans="19:19" x14ac:dyDescent="0.25">
@@ -7036,17 +7038,17 @@
     </row>
     <row r="108" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S108">
-        <v>7.5129999999999997E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="109" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S109">
-        <v>6.5009999999999998E-3</v>
+        <v>6.5040000000000002E-3</v>
       </c>
     </row>
     <row r="110" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S110">
-        <v>8.5059999999999997E-3</v>
+        <v>8.0059999999999992E-3</v>
       </c>
     </row>
     <row r="111" spans="19:19" x14ac:dyDescent="0.25">
@@ -7056,62 +7058,62 @@
     </row>
     <row r="112" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S112">
-        <v>1.1008E-2</v>
+        <v>1.1518E-2</v>
       </c>
     </row>
     <row r="113" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S113">
-        <v>1.2009000000000001E-2</v>
+        <v>1.2508999999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S114">
-        <v>1.3519E-2</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="115" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S115">
-        <v>1.5009E-2</v>
+        <v>1.5021E-2</v>
       </c>
     </row>
     <row r="116" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S116">
-        <v>1.6017E-2</v>
+        <v>1.6500999999999998E-2</v>
       </c>
     </row>
     <row r="117" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S117">
-        <v>1.7500000000000002E-2</v>
+        <v>1.8023000000000001E-2</v>
       </c>
     </row>
     <row r="118" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S118">
-        <v>1.8508E-2</v>
+        <v>1.9505999999999999E-2</v>
       </c>
     </row>
     <row r="119" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S119">
-        <v>2.0504999999999999E-2</v>
+        <v>2.1003999999999998E-2</v>
       </c>
     </row>
     <row r="120" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S120">
-        <v>2.2026E-2</v>
+        <v>2.1514999999999999E-2</v>
       </c>
     </row>
     <row r="121" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S121">
-        <v>2.2516000000000001E-2</v>
+        <v>2.3016999999999999E-2</v>
       </c>
     </row>
     <row r="122" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S122">
-        <v>2.4524000000000001E-2</v>
+        <v>2.4007000000000001E-2</v>
       </c>
     </row>
     <row r="123" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S123">
-        <v>2.5507999999999999E-2</v>
+        <v>2.5517999999999999E-2</v>
       </c>
     </row>
     <row r="124" spans="19:19" x14ac:dyDescent="0.25">
@@ -7121,37 +7123,37 @@
     </row>
     <row r="125" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S125">
-        <v>1.4920000000000001E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
     </row>
     <row r="126" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S126">
-        <v>1.0150000000000001E-3</v>
+        <v>1.5009999999999999E-3</v>
       </c>
     </row>
     <row r="127" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S127">
-        <v>9.9099999999999991E-4</v>
+        <v>1.0009999999999999E-3</v>
       </c>
     </row>
     <row r="128" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S128">
-        <v>1.5100000000000001E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
     </row>
     <row r="129" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S129">
-        <v>1.0009999999999999E-3</v>
+        <v>1.5009999999999999E-3</v>
       </c>
     </row>
     <row r="130" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S130">
-        <v>1.0139999999999999E-3</v>
+        <v>1.5009999999999999E-3</v>
       </c>
     </row>
     <row r="131" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S131">
-        <v>1.4959999999999999E-3</v>
+        <v>1.5009999999999999E-3</v>
       </c>
     </row>
     <row r="132" spans="19:19" x14ac:dyDescent="0.25">
@@ -7161,42 +7163,42 @@
     </row>
     <row r="133" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S133">
-        <v>2.0010000000000002E-3</v>
+        <v>3.003E-3</v>
       </c>
     </row>
     <row r="134" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S134">
-        <v>3.0109999999999998E-3</v>
+        <v>5.0029999999999996E-3</v>
       </c>
     </row>
     <row r="135" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S135">
-        <v>5.9959999999999996E-3</v>
+        <v>8.0059999999999992E-3</v>
       </c>
     </row>
     <row r="136" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S136">
-        <v>1.0506E-2</v>
+        <v>1.6511999999999999E-2</v>
       </c>
     </row>
     <row r="137" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S137">
-        <v>1.8516000000000001E-2</v>
+        <v>2.8015999999999999E-2</v>
       </c>
     </row>
     <row r="138" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S138">
-        <v>3.8532999999999998E-2</v>
+        <v>6.3045000000000004E-2</v>
       </c>
     </row>
     <row r="139" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S139">
-        <v>7.7551999999999996E-2</v>
+        <v>0.11858399999999999</v>
       </c>
     </row>
     <row r="140" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S140">
-        <v>0.65044500000000005</v>
+        <v>0.36175000000000002</v>
       </c>
     </row>
     <row r="141" spans="19:19" x14ac:dyDescent="0.25">
@@ -7211,7 +7213,7 @@
     </row>
     <row r="143" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S143">
-        <v>1.0020000000000001E-3</v>
+        <v>2.0019999999999999E-3</v>
       </c>
     </row>
     <row r="144" spans="19:19" x14ac:dyDescent="0.25">
@@ -7221,67 +7223,67 @@
     </row>
     <row r="145" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S145">
-        <v>9.8999999999999999E-4</v>
+        <v>1.5039999999999999E-3</v>
       </c>
     </row>
     <row r="146" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S146">
-        <v>1.0009999999999999E-3</v>
+        <v>1.498E-3</v>
       </c>
     </row>
     <row r="147" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S147">
-        <v>1.5009999999999999E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
     </row>
     <row r="148" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S148">
-        <v>1.5009999999999999E-3</v>
+        <v>2.0019999999999999E-3</v>
       </c>
     </row>
     <row r="149" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S149">
-        <v>1.5009999999999999E-3</v>
+        <v>2.0019999999999999E-3</v>
       </c>
     </row>
     <row r="150" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S150">
-        <v>2E-3</v>
+        <v>3.0019999999999999E-3</v>
       </c>
     </row>
     <row r="151" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S151">
-        <v>3.0019999999999999E-3</v>
+        <v>4.4929999999999996E-3</v>
       </c>
     </row>
     <row r="152" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S152">
-        <v>6.0039999999999998E-3</v>
+        <v>8.0059999999999992E-3</v>
       </c>
     </row>
     <row r="153" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S153">
-        <v>1.1017000000000001E-2</v>
+        <v>1.6011000000000001E-2</v>
       </c>
     </row>
     <row r="154" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S154">
-        <v>2.0008000000000001E-2</v>
+        <v>3.0022E-2</v>
       </c>
     </row>
     <row r="155" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S155">
-        <v>3.9528000000000001E-2</v>
+        <v>5.9551E-2</v>
       </c>
     </row>
     <row r="156" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S156">
-        <v>7.9055E-2</v>
+        <v>0.118574</v>
       </c>
     </row>
     <row r="157" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S157">
-        <v>0.65344400000000002</v>
+        <v>0.36428100000000002</v>
       </c>
     </row>
     <row r="158" spans="19:19" x14ac:dyDescent="0.25">
@@ -7291,82 +7293,82 @@
     </row>
     <row r="159" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S159">
-        <v>0.10657</v>
+        <v>0.107076</v>
       </c>
     </row>
     <row r="160" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S160">
-        <v>0.12809100000000001</v>
+        <v>0.12909200000000001</v>
       </c>
     </row>
     <row r="161" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S161">
-        <v>0.148086</v>
+        <v>0.151089</v>
       </c>
     </row>
     <row r="162" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S162">
-        <v>0.16914100000000001</v>
+        <v>0.171122</v>
       </c>
     </row>
     <row r="163" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S163">
-        <v>0.18967200000000001</v>
+        <v>0.193638</v>
       </c>
     </row>
     <row r="164" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S164">
-        <v>0.21063100000000001</v>
+        <v>0.21316099999999999</v>
       </c>
     </row>
     <row r="165" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S165">
-        <v>0.234677</v>
+        <v>0.23565700000000001</v>
       </c>
     </row>
     <row r="166" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S166">
-        <v>0.25518400000000002</v>
+        <v>0.25718299999999999</v>
       </c>
     </row>
     <row r="167" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S167">
-        <v>0.274727</v>
+        <v>0.27669700000000003</v>
       </c>
     </row>
     <row r="168" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S168">
-        <v>0.29971399999999998</v>
+        <v>0.29871300000000001</v>
       </c>
     </row>
     <row r="169" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S169">
-        <v>0.31673499999999999</v>
+        <v>0.32022699999999998</v>
       </c>
     </row>
     <row r="170" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S170">
-        <v>0.33823999999999999</v>
+        <v>0.34125299999999997</v>
       </c>
     </row>
     <row r="171" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S171">
-        <v>0.35825499999999999</v>
+        <v>0.36224699999999999</v>
       </c>
     </row>
     <row r="172" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S172">
-        <v>0.37977</v>
+        <v>0.38527400000000001</v>
       </c>
     </row>
     <row r="173" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S173">
-        <v>0.40127600000000002</v>
+        <v>0.40679900000000002</v>
       </c>
     </row>
     <row r="174" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S174">
-        <v>0.42130000000000001</v>
+        <v>0.42530200000000001</v>
       </c>
     </row>
     <row r="175" spans="19:19" x14ac:dyDescent="0.25">
